--- a/Exploration/visual_data/true_cols.xlsx
+++ b/Exploration/visual_data/true_cols.xlsx
@@ -430,7 +430,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -456,21 +456,21 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -487,10 +487,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -532,10 +532,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -552,13 +552,13 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -606,13 +606,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -640,10 +640,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -685,10 +685,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -702,13 +702,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -722,13 +722,13 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -736,13 +736,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -810,18 +810,18 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -833,15 +833,15 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -855,10 +855,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -872,10 +872,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -901,15 +901,15 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -923,10 +923,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -963,10 +963,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1031,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -1042,10 +1042,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -1127,13 +1127,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1161,10 +1161,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1212,13 +1212,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -1241,12 +1241,12 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -1314,10 +1314,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -1368,13 +1368,13 @@
         <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -1402,13 +1402,13 @@
         <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1456,10 +1456,10 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1535,10 +1535,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -1552,10 +1552,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1620,13 +1620,13 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -1637,10 +1637,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -1677,10 +1677,10 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -1688,13 +1688,13 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -1725,10 +1725,10 @@
         <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -1742,13 +1742,13 @@
         <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
@@ -1773,10 +1773,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -1790,10 +1790,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -1807,13 +1807,13 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -1853,12 +1853,12 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
@@ -1875,13 +1875,13 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -1895,13 +1895,13 @@
         <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -1921,15 +1921,15 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -1994,7 +1994,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2034,10 +2034,10 @@
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
@@ -2068,10 +2068,10 @@
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
@@ -2110,10 +2110,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2130,13 +2130,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2190,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2212,13 +2212,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -2269,10 +2269,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -2280,10 +2280,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -2309,18 +2309,18 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -2331,10 +2331,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -2382,10 +2382,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -2436,13 +2436,13 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2462,15 +2462,15 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2518,10 +2518,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2558,10 +2558,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2623,13 +2623,13 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -2654,10 +2654,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -2694,10 +2694,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -2705,13 +2705,13 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -2739,10 +2739,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -2756,7 +2756,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2799,10 +2799,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2816,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -2827,10 +2827,10 @@
         <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -2864,10 +2864,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -2878,13 +2878,13 @@
         <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -2898,13 +2898,13 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2915,18 +2915,18 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2946,10 +2946,10 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -2991,10 +2991,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3028,13 +3028,13 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3042,13 +3042,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -3062,10 +3062,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3093,7 +3093,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -3122,12 +3122,12 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -3144,7 +3144,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -3161,13 +3161,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -3207,15 +3207,15 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -3229,10 +3229,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -3292,15 +3292,15 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -3317,13 +3317,13 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -3334,13 +3334,13 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -3348,10 +3348,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -3368,10 +3368,10 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -3385,13 +3385,13 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -3402,10 +3402,10 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -3422,10 +3422,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -3450,10 +3450,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -3501,7 +3501,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -3552,13 +3552,13 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -3578,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3589,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3598,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3646,15 +3646,15 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3688,10 +3688,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3722,10 +3722,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -3742,13 +3742,13 @@
         <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -3759,10 +3759,10 @@
         <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -3807,13 +3807,13 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -3858,7 +3858,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
@@ -3887,15 +3887,15 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -3921,18 +3921,18 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -3983,13 +3983,13 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -4000,13 +4000,13 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -4020,10 +4020,10 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -4051,21 +4051,21 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -4088,15 +4088,15 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -4113,13 +4113,13 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -4133,10 +4133,10 @@
         <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -4164,10 +4164,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
@@ -4210,18 +4210,18 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -4275,15 +4275,15 @@
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
@@ -4292,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -4303,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -4312,15 +4312,15 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -4334,7 +4334,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
@@ -4343,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
@@ -4354,10 +4354,10 @@
         <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -4374,21 +4374,21 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -4419,10 +4419,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -4436,13 +4436,13 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -4470,10 +4470,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -4487,10 +4487,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -4533,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4541,10 +4541,10 @@
         <v>0</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -4555,10 +4555,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -4575,10 +4575,10 @@
         <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -4595,10 +4595,10 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -4618,15 +4618,15 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -4643,13 +4643,13 @@
         <v>0</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
@@ -4660,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -4669,15 +4669,15 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -4708,10 +4708,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -4725,13 +4725,13 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -4742,10 +4742,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
@@ -4771,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -4779,10 +4779,10 @@
         <v>0</v>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
@@ -4799,10 +4799,10 @@
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
@@ -4864,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -4873,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -4884,10 +4884,10 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
@@ -4901,13 +4901,13 @@
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -4915,10 +4915,10 @@
         <v>0</v>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
@@ -4935,13 +4935,13 @@
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -4966,13 +4966,13 @@
         <v>0</v>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
@@ -4989,10 +4989,10 @@
         <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -5003,13 +5003,13 @@
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -5051,10 +5051,10 @@
         <v>0</v>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
@@ -5085,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -5094,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -5119,10 +5119,10 @@
         <v>0</v>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
@@ -5136,10 +5136,10 @@
         <v>0</v>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -5150,7 +5150,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
@@ -5170,10 +5170,10 @@
         <v>0</v>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -5184,13 +5184,13 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
@@ -5201,10 +5201,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -5221,13 +5221,13 @@
         <v>0</v>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
@@ -5252,10 +5252,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -5286,7 +5286,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -5298,18 +5298,18 @@
         <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -5337,13 +5337,13 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
@@ -5357,10 +5357,10 @@
         <v>0</v>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
@@ -5371,10 +5371,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -5388,13 +5388,13 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B143" t="n">
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D143" t="n">
         <v>0</v>
@@ -5411,10 +5411,10 @@
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
@@ -5428,13 +5428,13 @@
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D145" t="n">
         <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -5442,7 +5442,7 @@
         <v>0</v>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -5451,7 +5451,7 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -5459,13 +5459,13 @@
         <v>0</v>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
@@ -5476,10 +5476,10 @@
         <v>0</v>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D148" t="n">
         <v>0</v>
@@ -5490,7 +5490,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B149" t="n">
         <v>0</v>
@@ -5502,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -5510,13 +5510,13 @@
         <v>0</v>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
@@ -5527,10 +5527,10 @@
         <v>0</v>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
@@ -5550,15 +5550,15 @@
         <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B153" t="n">
         <v>0</v>
@@ -5570,12 +5570,12 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B154" t="n">
         <v>0</v>
@@ -5584,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="D154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
@@ -5595,13 +5595,13 @@
         <v>0</v>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
@@ -5615,10 +5615,10 @@
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
@@ -5669,10 +5669,10 @@
         <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -5717,10 +5717,10 @@
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>
@@ -5728,7 +5728,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B163" t="n">
         <v>0</v>
@@ -5737,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
@@ -5745,10 +5745,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -5762,7 +5762,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B165" t="n">
         <v>0</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -5788,10 +5788,10 @@
         <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -5813,7 +5813,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B168" t="n">
         <v>0</v>
@@ -5822,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="D168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E168" t="n">
         <v>0</v>
@@ -5847,7 +5847,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B170" t="n">
         <v>0</v>
@@ -5859,7 +5859,7 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -5867,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -5876,15 +5876,15 @@
         <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -5898,10 +5898,10 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -5935,10 +5935,10 @@
         <v>0</v>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D175" t="n">
         <v>0</v>
@@ -5949,7 +5949,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B176" t="n">
         <v>0</v>
@@ -5958,7 +5958,7 @@
         <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
@@ -5969,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -5986,10 +5986,10 @@
         <v>0</v>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D178" t="n">
         <v>0</v>
@@ -6017,10 +6017,10 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B181" t="n">
         <v>0</v>
@@ -6043,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="D181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
@@ -6051,7 +6051,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B182" t="n">
         <v>0</v>
@@ -6060,7 +6060,7 @@
         <v>0</v>
       </c>
       <c r="D182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E182" t="n">
         <v>0</v>
@@ -6085,7 +6085,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B184" t="n">
         <v>0</v>
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
@@ -6108,21 +6108,21 @@
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D185" t="n">
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -6139,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="B187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -6187,13 +6187,13 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B190" t="n">
         <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D190" t="n">
         <v>0</v>
@@ -6207,7 +6207,7 @@
         <v>0</v>
       </c>
       <c r="B191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -6216,7 +6216,7 @@
         <v>0</v>
       </c>
       <c r="E191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -6224,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -6233,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -6258,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -6267,12 +6267,12 @@
         <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B195" t="n">
         <v>0</v>
@@ -6284,7 +6284,7 @@
         <v>0</v>
       </c>
       <c r="E195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -6292,13 +6292,13 @@
         <v>0</v>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
       </c>
       <c r="D196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E196" t="n">
         <v>0</v>
@@ -6306,10 +6306,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -6326,10 +6326,10 @@
         <v>0</v>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D198" t="n">
         <v>0</v>
@@ -6340,10 +6340,10 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -6391,7 +6391,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B202" t="n">
         <v>0</v>
@@ -6403,12 +6403,12 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B203" t="n">
         <v>0</v>
@@ -6417,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="D203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E203" t="n">
         <v>0</v>
@@ -6428,10 +6428,10 @@
         <v>0</v>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D204" t="n">
         <v>0</v>
@@ -6442,13 +6442,13 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B205" t="n">
         <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D205" t="n">
         <v>0</v>
@@ -6459,7 +6459,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B206" t="n">
         <v>0</v>
@@ -6471,12 +6471,12 @@
         <v>0</v>
       </c>
       <c r="E206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B207" t="n">
         <v>0</v>
@@ -6485,7 +6485,7 @@
         <v>0</v>
       </c>
       <c r="D207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E207" t="n">
         <v>0</v>
@@ -6493,13 +6493,13 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B208" t="n">
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D208" t="n">
         <v>0</v>
@@ -6530,10 +6530,10 @@
         <v>0</v>
       </c>
       <c r="B210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D210" t="n">
         <v>0</v>
@@ -6547,13 +6547,13 @@
         <v>0</v>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E211" t="n">
         <v>0</v>
@@ -6584,13 +6584,13 @@
         <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D213" t="n">
         <v>0</v>
       </c>
       <c r="E213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -6598,10 +6598,10 @@
         <v>0</v>
       </c>
       <c r="B214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D214" t="n">
         <v>0</v>
@@ -6612,13 +6612,13 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B215" t="n">
         <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D215" t="n">
         <v>0</v>
@@ -6632,10 +6632,10 @@
         <v>0</v>
       </c>
       <c r="B216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D216" t="n">
         <v>0</v>
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="B217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6658,7 +6658,7 @@
         <v>0</v>
       </c>
       <c r="E217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -6714,13 +6714,13 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B221" t="n">
         <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D221" t="n">
         <v>0</v>
@@ -6734,7 +6734,7 @@
         <v>0</v>
       </c>
       <c r="B222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6743,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -6765,7 +6765,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B224" t="n">
         <v>0</v>
@@ -6777,7 +6777,7 @@
         <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -6799,7 +6799,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B226" t="n">
         <v>0</v>
@@ -6808,7 +6808,7 @@
         <v>0</v>
       </c>
       <c r="D226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E226" t="n">
         <v>0</v>
@@ -6887,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="B231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6896,15 +6896,15 @@
         <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6918,7 +6918,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B233" t="n">
         <v>0</v>
@@ -6930,12 +6930,12 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B234" t="n">
         <v>0</v>
@@ -6944,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="D234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E234" t="n">
         <v>0</v>
@@ -6952,10 +6952,10 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6992,13 +6992,13 @@
         <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D237" t="n">
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -7020,10 +7020,10 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -7037,10 +7037,10 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -7054,13 +7054,13 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B241" t="n">
         <v>0</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D241" t="n">
         <v>0</v>
@@ -7074,7 +7074,7 @@
         <v>0</v>
       </c>
       <c r="B242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -7083,7 +7083,7 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -7091,10 +7091,10 @@
         <v>0</v>
       </c>
       <c r="B243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D243" t="n">
         <v>0</v>
@@ -7111,13 +7111,13 @@
         <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D244" t="n">
         <v>0</v>
       </c>
       <c r="E244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -7125,7 +7125,7 @@
         <v>0</v>
       </c>
       <c r="B245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -7134,12 +7134,12 @@
         <v>0</v>
       </c>
       <c r="E245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B246" t="n">
         <v>0</v>
@@ -7148,7 +7148,7 @@
         <v>0</v>
       </c>
       <c r="D246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E246" t="n">
         <v>0</v>
@@ -7173,13 +7173,13 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B248" t="n">
         <v>0</v>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D248" t="n">
         <v>0</v>
@@ -7193,13 +7193,13 @@
         <v>0</v>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
       </c>
       <c r="D249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E249" t="n">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="B250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -7219,18 +7219,18 @@
         <v>0</v>
       </c>
       <c r="E250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B251" t="n">
         <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D251" t="n">
         <v>0</v>
